--- a/超短期算法项目清单_西北区域(1).xlsx
+++ b/超短期算法项目清单_西北区域(1).xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$41</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="147">
   <si>
     <t>装机</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -335,12 +338,324 @@
   </si>
   <si>
     <t>（鲁能）格尔木新鲁多能互补风电场</t>
+  </si>
+  <si>
+    <t>数据长度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已有气象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺失气象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00,01,02,03,04,06</t>
+  </si>
+  <si>
+    <t>实际功率清洗了3309条数据
+01 气象清洗了3264条数据,
+02 气象清洗了12192条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了2381条数据
+01 气象清洗了3264条数据,
+02 气象清洗了12192条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了760条数据
+ 01 气象清洗了3264条数据,
+ 02 气象清洗了12192条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了3092条数据
+01 气象清洗了3264条数据,
+02 气象清洗了12192条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了3822条数据
+01 气象清洗了3264条数据,
+02 气象清洗了12192条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了984条数据
+01 气象清洗了3264条数据,
+02 气象清洗了12192条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了2560条数据
+01 气象清洗了3264条数据
+ 02 气象清洗了12255条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了1661条数据
+00 气象清洗了52条数据
+  01 气象清洗了3072条数据
+   02 气象清洗了12192条数据
+03 气象清洗了52条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了4858条数据
+01 气象清洗了3072条数据
+ 02 气象清洗了12192条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了1944条数据
+01 气象清洗了3072条数据
+ 02 气象清洗了12192条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了848条数据
+01 气象清洗了3168条数据
+ 02 气象清洗了12254条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了1863条数据
+00 气象清洗了57条数据
+  01 气象清洗了3168条数据
+   02 气象清洗了12192条数据
+03 气象清洗了57条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了2460条数据
+01 气象清洗了3264条数据
+ 02 气象清洗了12192条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00,01,02,03,06</t>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了3481条数据
+01 气象清洗了3168条数据
+ 02 气象清洗了12192条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了2247条数据
+01 气象清洗了3264条数据
+ 02 气象清洗了12192条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了1836条数据
+01 气象清洗了3264条数据
+ 02 气象清洗了12192条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了1265条数据
+01 气象清洗了3168条数据
+ 02 气象清洗了12256条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了2702条数据
+01 气象清洗了3264条数据
+ 02 气象清洗了12277条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了9107条数据
+01 气象清洗了3168条数据 
+ 02 气象清洗了12192条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了2451条数据
+01 气象清洗了3264条数据
+ 02 气象清洗了12192条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了1415条数据
+00 气象清洗了56条数据
+  01 气象清洗了3264条数据
+02 气象清洗了50条数据
+03 气象清洗了56条数据
+04 气象清洗了14条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了303条数据
+00 气象清洗了54条数据
+  01 气象清洗了3168条数据
+03 气象清洗了54条数据
+04 气象清洗了13条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了1292条数据
+01 气象清洗了3168条数据
+ 02 气象清洗了12265条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了527条数据
+00 气象清洗了56条数据
+  01 气象清洗了3072条数据
+03 气象清洗了56条数据
+04 气象清洗了16条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了1156条数据
+01 气象清洗了3362条数据
+ 02 气象清洗了12264条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00,01,02,03,04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">实际功率清洗了377条数据
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">实际功率清洗了643条数据
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了4224条数据
+01 气象清洗了3168条数据
+ 02 气象清洗了12192条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了827条数据
+01 气象清洗了3168条数据
+ 02 气象清洗了12244条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了875条数据
+01 气象清洗了3168条数据
+ 02 气象清洗了12251条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了6064条数据
+01 气象清洗了3168条数据
+ 02 气象清洗了12192条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了13523条数据
+01 气象清洗了3168条数据
+ 02 气象清洗了12192条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了14676条数据
+01 气象清洗了3168条数据
+  02 气象清洗了12192条数据,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了7620条数据
+00 气象清洗了51条数据
+  01 气象清洗了3264条数据
+   02 气象清洗了12331条数据
+03 气象清洗了51条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了8033条数据
+01 气象清洗了3072条数据
+ 02 气象清洗了12192条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了3226条数据
+00 气象清洗了62条数据
+  01 气象清洗了3264条数据
+   02 气象清洗了12192条数据
+03 气象清洗了62条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了4159条数据
+01 气象清洗了3072条数据
+ 02 气象清洗了12192条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了8088条数据
+00 气象清洗了226条数据
+ 01 气象清洗了3264条数据
+  02 气象清洗了12333条数据
+03 气象清洗了226条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了2241条数据
+01 气象清洗了3072条数据
+ 02 气象清洗了12192条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际功率清洗了3864条数据
+01 气象清洗了3168条数据
+ 02 气象清洗了12192条数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集电线数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否采用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -461,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -497,6 +812,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -515,7 +839,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -801,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -813,9 +1137,14 @@
     <col min="2" max="2" width="40.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -828,14 +1157,29 @@
       <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K1" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -849,8 +1193,22 @@
         <v>51</v>
       </c>
       <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F2" s="3"/>
+      <c r="G2" s="13">
+        <v>37491</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -864,8 +1222,22 @@
         <v>51</v>
       </c>
       <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F3" s="3"/>
+      <c r="G3" s="13">
+        <v>38419</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -879,8 +1251,22 @@
         <v>51</v>
       </c>
       <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F4" s="3"/>
+      <c r="G4" s="13">
+        <v>40040</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -894,8 +1280,22 @@
         <v>51</v>
       </c>
       <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F5" s="3"/>
+      <c r="G5" s="13">
+        <v>47501</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -909,8 +1309,22 @@
         <v>51</v>
       </c>
       <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F6" s="3"/>
+      <c r="G6" s="13">
+        <v>36978</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -924,8 +1338,22 @@
         <v>51</v>
       </c>
       <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F7" s="3"/>
+      <c r="G7" s="13">
+        <v>39816</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -939,8 +1367,22 @@
         <v>51</v>
       </c>
       <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F8" s="3"/>
+      <c r="G8" s="13">
+        <v>38241</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -954,8 +1396,22 @@
         <v>51</v>
       </c>
       <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F9" s="3"/>
+      <c r="G9" s="13">
+        <v>42115</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -969,8 +1425,22 @@
         <v>51</v>
       </c>
       <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F10" s="3"/>
+      <c r="G10" s="13">
+        <v>35943</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -984,8 +1454,22 @@
         <v>51</v>
       </c>
       <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F11" s="3"/>
+      <c r="G11" s="13">
+        <v>38856</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -999,11 +1483,24 @@
         <v>51</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G12" s="13">
+        <v>39952</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
@@ -1017,8 +1514,22 @@
         <v>51</v>
       </c>
       <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F13" s="3"/>
+      <c r="G13" s="13">
+        <v>38937</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
@@ -1032,8 +1543,22 @@
         <v>51</v>
       </c>
       <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F14" s="3"/>
+      <c r="G14" s="13">
+        <v>38340</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
@@ -1047,8 +1572,24 @@
         <v>51</v>
       </c>
       <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F15" s="3"/>
+      <c r="G15" s="13">
+        <v>31367</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>25</v>
       </c>
@@ -1062,11 +1603,24 @@
         <v>51</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G16" s="13">
+        <v>38553</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>26</v>
       </c>
@@ -1080,8 +1634,24 @@
         <v>51</v>
       </c>
       <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F17" s="3"/>
+      <c r="G17" s="13">
+        <v>38964</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
@@ -1094,8 +1664,25 @@
       <c r="D18" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="13">
+        <v>36560</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>28</v>
       </c>
@@ -1108,8 +1695,25 @@
       <c r="D19" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="13">
+        <v>38098</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>29</v>
       </c>
@@ -1122,8 +1726,23 @@
       <c r="D20" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="13">
+        <v>31694</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>30</v>
       </c>
@@ -1136,8 +1755,25 @@
       <c r="D21" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="13">
+        <v>38349</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="81" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>1</v>
       </c>
@@ -1150,8 +1786,23 @@
       <c r="D22" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="13">
+        <v>39385</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>31</v>
       </c>
@@ -1164,8 +1815,23 @@
       <c r="D23" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="13">
+        <v>40497</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>2</v>
       </c>
@@ -1178,8 +1844,23 @@
       <c r="D24" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="13">
+        <v>37684</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>3</v>
       </c>
@@ -1192,8 +1873,23 @@
       <c r="D25" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="13">
+        <v>40273</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>32</v>
       </c>
@@ -1206,8 +1902,25 @@
       <c r="D26" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="13">
+        <v>37916</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="27" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>4</v>
       </c>
@@ -1220,8 +1933,25 @@
       <c r="D27" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="13">
+        <v>40423</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="27" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>5</v>
       </c>
@@ -1234,8 +1964,25 @@
       <c r="D28" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="13">
+        <v>37278</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
@@ -1248,8 +1995,25 @@
       <c r="D29" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="13">
+        <v>36576</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>33</v>
       </c>
@@ -1262,8 +2026,23 @@
       <c r="D30" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="13">
+        <v>39973</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
@@ -1276,8 +2055,25 @@
       <c r="D31" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="13">
+        <v>39925</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>35</v>
       </c>
@@ -1290,8 +2086,25 @@
       <c r="D32" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="13">
+        <v>33968</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>36</v>
       </c>
@@ -1304,8 +2117,23 @@
       <c r="D33" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="13">
+        <v>24301</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>37</v>
       </c>
@@ -1318,11 +2146,25 @@
       <c r="D34" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F34" t="s">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G34" s="13">
+        <v>23148</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I34" s="14"/>
+      <c r="J34" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>38</v>
       </c>
@@ -1335,11 +2177,25 @@
       <c r="D35" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F35" t="s">
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G35" s="13">
+        <v>33180</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>39</v>
       </c>
@@ -1352,11 +2208,25 @@
       <c r="D36" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F36" t="s">
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G36" s="13">
+        <v>32767</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I36" s="14"/>
+      <c r="J36" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>40</v>
       </c>
@@ -1369,8 +2239,25 @@
       <c r="D37" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="13">
+        <v>34598</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>41</v>
       </c>
@@ -1383,11 +2270,25 @@
       <c r="D38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F38" t="s">
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G38" s="13">
+        <v>32514</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I38" s="14"/>
+      <c r="J38" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>42</v>
       </c>
@@ -1400,11 +2301,25 @@
       <c r="D39" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F39" t="s">
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G39" s="13">
+        <v>32712</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>43</v>
       </c>
@@ -1417,8 +2332,23 @@
       <c r="D40" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="13">
+        <v>21183</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="J40" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>44</v>
       </c>
@@ -1431,8 +2361,24 @@
       <c r="D41" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="13">
+        <v>34056</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I41" s="14"/>
+      <c r="J41" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>145</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K41"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
